--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BilligenceCaseStudyUkUni\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819D990-7913-4FC9-AEFC-453C8C41002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F0E7C-F630-4056-B7A8-D3F17E4BA159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="26385" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Ranking Year</t>
   </si>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>Value added score/10</t>
+  </si>
+  <si>
+    <t>AA Uni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -376,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -440,6 +444,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5">
+        <v>6.6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
